--- a/StructureDefinition-profile-FamilyMemberHistory.xlsx
+++ b/StructureDefinition-profile-FamilyMemberHistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="323">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7006058-06:00</t>
+    <t>2026-02-09T22:05:43.1326957-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,33 +425,79 @@
     <t>FamilyMemberHistory.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.participant|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for FamilyMemberHistory.participant from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates who or what participated in the activities related to the family member history and how they were involved.</t>
+  </si>
+  <si>
+    <t>Element `FamilyMemberHistory.participant` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.extension:procedure</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for FamilyMemberHistory.procedure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The significant Procedures (or procedure) that the family member had. This is a repeating section to allow a system to represent more than one procedure per resource, though there is nothing stopping multiple resources - one per procedure.</t>
+  </si>
+  <si>
+    <t>Element `FamilyMemberHistory.procedure` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>FamilyMemberHistory.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -459,6 +505,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -872,6 +921,9 @@
   </si>
   <si>
     <t>FamilyMemberHistory.condition.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1274,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2249,7 +2301,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2268,17 +2320,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2315,16 +2365,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2348,7 +2396,7 @@
         <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>77</v>
@@ -2359,11 +2407,13 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2376,26 +2426,24 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2443,7 +2491,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2452,7 +2500,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2464,7 +2512,7 @@
         <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>77</v>
@@ -2472,12 +2520,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2495,23 +2545,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2559,7 +2607,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2568,34 +2616,34 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2608,22 +2656,26 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2671,7 +2723,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2683,16 +2735,16 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2726,18 +2778,20 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2800,24 +2854,24 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2825,32 +2879,30 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2875,37 +2927,37 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
@@ -2914,24 +2966,24 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2942,7 +2994,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -2954,7 +3006,7 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>176</v>
@@ -2962,10 +3014,10 @@
       <c r="M15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>178</v>
       </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -2989,13 +3041,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3013,13 +3065,13 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -3028,13 +3080,13 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3042,14 +3094,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3062,21 +3114,23 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3101,13 +3155,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3125,7 +3179,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3140,24 +3194,24 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3180,19 +3234,17 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3217,13 +3269,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3241,7 +3293,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3265,23 +3317,23 @@
         <v>197</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3305,9 +3357,7 @@
         <v>202</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3355,10 +3405,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
@@ -3370,7 +3420,7 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -3379,15 +3429,15 @@
         <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3395,7 +3445,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -3410,16 +3460,20 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3443,13 +3497,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3467,10 +3521,10 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>88</v>
@@ -3488,18 +3542,18 @@
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3522,19 +3576,17 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3559,13 +3611,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3583,7 +3635,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3604,7 +3656,7 @@
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3612,10 +3664,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3623,7 +3675,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -3635,10 +3687,10 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>221</v>
@@ -3647,9 +3699,7 @@
         <v>222</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3673,13 +3723,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3697,16 +3747,16 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>100</v>
@@ -3752,19 +3802,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3789,13 +3839,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3822,7 +3872,7 @@
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>100</v>
@@ -3834,7 +3884,7 @@
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -3842,10 +3892,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3865,29 +3915,25 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" t="s" s="2">
         <v>237</v>
       </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>238</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q23" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3931,7 +3977,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3940,7 +3986,7 @@
         <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>100</v>
@@ -3952,7 +3998,7 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -3994,8 +4040,12 @@
       <c r="M24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4052,7 +4102,7 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>100</v>
@@ -4064,7 +4114,7 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4072,10 +4122,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4086,7 +4136,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4098,98 +4148,102 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4200,7 +4254,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4212,13 +4266,13 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4269,13 +4323,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4284,24 +4338,24 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4321,18 +4375,20 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4357,13 +4413,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4381,7 +4437,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4396,24 +4452,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4433,16 +4489,16 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4493,7 +4549,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4508,24 +4564,24 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4536,7 +4592,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4548,13 +4604,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4605,28 +4661,28 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4634,14 +4690,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4660,17 +4716,15 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4719,7 +4773,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4731,7 +4785,7 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -4740,7 +4794,7 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4748,46 +4802,42 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4835,19 +4885,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -4856,7 +4906,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>131</v>
+        <v>289</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -4864,21 +4914,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4890,15 +4940,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4923,13 +4975,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4947,19 +4999,19 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -4968,7 +5020,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -4976,42 +5028,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5035,13 +5091,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5059,19 +5115,19 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5080,7 +5136,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5088,10 +5144,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5099,7 +5155,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -5114,13 +5170,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5147,13 +5203,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5171,10 +5227,10 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>88</v>
@@ -5192,7 +5248,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5200,10 +5256,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5226,18 +5282,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5261,13 +5315,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5285,7 +5339,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5306,7 +5360,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5314,10 +5368,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5328,7 +5382,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5340,13 +5394,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5397,13 +5451,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5418,9 +5472,235 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-FamilyMemberHistory.xlsx
+++ b/StructureDefinition-profile-FamilyMemberHistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="326">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1326957-06:00</t>
+    <t>2026-02-17T14:42:26.814597-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,7 +465,7 @@
     <t>Indicates who or what participated in the activities related to the family member history and how they were involved.</t>
   </si>
   <si>
-    <t>Element `FamilyMemberHistory.participant` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+    <t>Element `FamilyMemberHistory.participant` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -488,7 +488,7 @@
     <t>The significant Procedures (or procedure) that the family member had. This is a repeating section to allow a system to represent more than one procedure per resource, though there is nothing stopping multiple resources - one per procedure.</t>
   </si>
   <si>
-    <t>Element `FamilyMemberHistory.procedure` is will have a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
+    <t>Element `FamilyMemberHistory.procedure` has a context of FamilyMemberHistory based on following the parent source element upwards and mapping to `FamilyMemberHistory`.</t>
   </si>
   <si>
     <t>FamilyMemberHistory.modifierExtension</t>
@@ -923,13 +923,23 @@
     <t>FamilyMemberHistory.condition.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition.extension:condition</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.condition|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for FamilyMemberHistory.condition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `FamilyMemberHistory.condition` has is mapped to FHIR R4 element `FamilyMemberHistory.condition`, but has no comparisons.</t>
   </si>
   <si>
     <t>FamilyMemberHistory.condition.modifierExtension</t>
@@ -1326,7 +1336,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4921,7 +4931,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4943,14 +4953,12 @@
         <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>134</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4987,19 +4995,17 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5020,7 +5026,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5028,14 +5034,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="D33" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5048,26 +5056,24 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5115,7 +5121,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5124,7 +5130,7 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>139</v>
@@ -5136,7 +5142,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5144,42 +5150,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5203,13 +5213,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5227,19 +5237,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5248,7 +5258,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>131</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5256,10 +5266,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5267,7 +5277,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -5285,10 +5295,10 @@
         <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5318,10 +5328,10 @@
         <v>194</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5339,10 +5349,10 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>88</v>
@@ -5360,7 +5370,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5368,10 +5378,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5394,13 +5404,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5427,13 +5437,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5451,7 +5461,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5472,7 +5482,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5506,18 +5516,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>318</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5586,7 +5594,7 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5594,10 +5602,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5608,7 +5616,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5620,16 +5628,18 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5677,13 +5687,13 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
@@ -5698,9 +5708,121 @@
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-FamilyMemberHistory.xlsx
+++ b/StructureDefinition-profile-FamilyMemberHistory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.814597-06:00</t>
+    <t>2026-02-20T11:59:20.8168308-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/FamilyMemberHistory|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/FamilyMemberHistory</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.participant|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.participant}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>procedure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure}
 </t>
   </si>
   <si>
@@ -713,7 +713,7 @@
     <t>The nature of the relationship between the patient and the related person being described in the family member history.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-FamilyMember|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-FamilyMember</t>
   </si>
   <si>
     <t>code</t>
@@ -932,7 +932,7 @@
     <t>condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.condition|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.condition}
 </t>
   </si>
   <si>
@@ -1370,7 +1370,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="97.9375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.45703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.88671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-FamilyMemberHistory.xlsx
+++ b/StructureDefinition-profile-FamilyMemberHistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="323">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8168308-06:00</t>
+    <t>2026-02-21T13:36:54.2352428-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/FamilyMemberHistory</t>
+    <t>http://hl7.org/fhir/StructureDefinition/FamilyMemberHistory|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.participant}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.participant|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>procedure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.procedure|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -713,7 +713,7 @@
     <t>The nature of the relationship between the patient and the related person being described in the family member history.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-FamilyMember</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-FamilyMember|3.0.0</t>
   </si>
   <si>
     <t>code</t>
@@ -923,23 +923,13 @@
     <t>FamilyMemberHistory.condition.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>FamilyMemberHistory.condition.extension:condition</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-FamilyMemberHistory.condition}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for FamilyMemberHistory.condition from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `FamilyMemberHistory.condition` has is mapped to FHIR R4 element `FamilyMemberHistory.condition`, but has no comparisons.</t>
   </si>
   <si>
     <t>FamilyMemberHistory.condition.modifierExtension</t>
@@ -1336,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1370,7 +1360,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="97.9375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.88671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.45703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
@@ -4931,7 +4921,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4953,12 +4943,14 @@
         <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4995,17 +4987,19 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5026,7 +5020,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5034,16 +5028,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5056,24 +5048,26 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5121,7 +5115,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5130,7 +5124,7 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>139</v>
@@ -5142,7 +5136,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5150,46 +5144,42 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5213,13 +5203,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5237,19 +5227,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5258,7 +5248,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5266,10 +5256,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5277,7 +5267,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -5295,10 +5285,10 @@
         <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5328,31 +5318,31 @@
         <v>194</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AG35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>88</v>
@@ -5370,7 +5360,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5378,10 +5368,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5404,13 +5394,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5437,31 +5427,31 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5482,7 +5472,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5516,16 +5506,18 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5594,7 +5586,7 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5602,10 +5594,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5616,7 +5608,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5628,18 +5620,16 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5687,13 +5677,13 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
@@ -5708,121 +5698,9 @@
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AN39" t="s" s="2">
         <v>77</v>
       </c>
     </row>
